--- a/5xCryptogram仿真测试集.xlsx
+++ b/5xCryptogram仿真测试集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>功能1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>寄存器读写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,30 +591,6 @@
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -620,36 +600,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,25 +618,73 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,7 +1055,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F7" sqref="F7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1060,140 +1064,140 @@
     <col min="2" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="10" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="11" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16"/>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="15"/>
-    </row>
-    <row r="3" spans="1:17" s="10" customFormat="1" ht="16" thickBot="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="16" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="16" thickBot="1">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-    </row>
-    <row r="4" spans="1:17" s="10" customFormat="1" ht="16" thickBot="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" ht="16" thickBot="1">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="26" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="20"/>
-    </row>
-    <row r="5" spans="1:17" s="10" customFormat="1">
-      <c r="A5" s="30" t="s">
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1">
+      <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="27" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="33" t="s">
+      <c r="J5" s="25"/>
+      <c r="K5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="29" t="s">
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="33" t="s">
+      <c r="P5" s="25"/>
+      <c r="Q5" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1201,282 +1205,284 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17">
@@ -1581,6 +1587,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="F1:Q2"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
     <mergeCell ref="L16:N16"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="O6:P6"/>
@@ -1597,64 +1661,6 @@
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="F1:Q2"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
